--- a/May_24_Delivery_Data.xlsx
+++ b/May_24_Delivery_Data.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="456">
   <si>
     <t>Facility Name</t>
   </si>
   <si>
-    <t>Facility Latitude</t>
-  </si>
-  <si>
-    <t>Facility Longitude</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Deliv Center Capac</t>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Delivery Volume</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
   </si>
   <si>
     <t>4414 CRITES HOUSTON, TX, 77003</t>
@@ -1838,10 +1832,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1849,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1866,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1883,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1900,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1917,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1934,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1951,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1968,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1985,7 +1979,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2002,7 +1996,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2019,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2036,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2053,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2070,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2087,7 +2081,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2104,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2121,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2138,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2155,7 +2149,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>22</v>
@@ -2172,7 +2166,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2189,7 +2183,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2206,7 +2200,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2223,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2240,7 +2234,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2257,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2274,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2291,7 +2285,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2308,7 +2302,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2325,7 +2319,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2359,7 +2353,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2376,7 +2370,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2393,7 +2387,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2410,7 +2404,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2427,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2444,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2461,7 +2455,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2478,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2495,7 +2489,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2512,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2529,7 +2523,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -2546,7 +2540,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2563,7 +2557,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2580,7 +2574,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2597,7 +2591,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2614,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2631,7 +2625,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2648,7 +2642,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -2665,7 +2659,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2682,7 +2676,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2699,7 +2693,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2716,7 +2710,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2733,7 +2727,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2750,7 +2744,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2767,7 +2761,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2784,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2801,7 +2795,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2818,7 +2812,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2835,7 +2829,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2852,7 +2846,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2869,7 +2863,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2886,7 +2880,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2903,7 +2897,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -2920,7 +2914,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2937,7 +2931,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2954,7 +2948,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2971,7 +2965,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2988,7 +2982,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3005,7 +2999,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3022,7 +3016,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3039,7 +3033,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3056,7 +3050,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -3073,7 +3067,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3090,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3107,7 +3101,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -3124,7 +3118,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3141,7 +3135,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -3158,7 +3152,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3175,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3192,7 +3186,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -3209,7 +3203,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3226,7 +3220,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3243,7 +3237,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3260,7 +3254,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3277,7 +3271,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3294,7 +3288,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -3311,7 +3305,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -3328,7 +3322,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -3345,7 +3339,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3362,7 +3356,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C91">
         <v>11</v>
@@ -3379,7 +3373,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -3396,7 +3390,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -3413,7 +3407,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -3430,7 +3424,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3447,7 +3441,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -3464,7 +3458,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -3481,7 +3475,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3498,7 +3492,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -3515,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -3532,7 +3526,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -3549,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3566,7 +3560,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3583,7 +3577,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3600,7 +3594,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3617,7 +3611,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -3634,7 +3628,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3651,7 +3645,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3668,7 +3662,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -3685,7 +3679,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3702,7 +3696,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -3719,7 +3713,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -3736,7 +3730,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3753,7 +3747,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3770,7 +3764,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3787,7 +3781,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3804,7 +3798,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3821,7 +3815,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3838,7 +3832,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3855,7 +3849,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -3872,7 +3866,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -3889,7 +3883,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3906,7 +3900,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3923,7 +3917,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -3940,7 +3934,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3957,7 +3951,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -3974,7 +3968,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3991,7 +3985,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4008,7 +4002,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -4025,7 +4019,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4042,7 +4036,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4059,7 +4053,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4076,7 +4070,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4093,7 +4087,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4110,7 +4104,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4127,7 +4121,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4144,7 +4138,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -4161,7 +4155,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4178,7 +4172,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4195,7 +4189,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -4212,7 +4206,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4229,7 +4223,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4246,7 +4240,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -4263,7 +4257,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -4280,7 +4274,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -4297,7 +4291,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -4314,7 +4308,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C147">
         <v>6</v>
@@ -4331,7 +4325,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4348,7 +4342,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4365,7 +4359,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4382,7 +4376,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C151">
         <v>17</v>
@@ -4399,7 +4393,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -4416,7 +4410,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4433,7 +4427,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -4450,7 +4444,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -4467,7 +4461,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -4484,7 +4478,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4501,7 +4495,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4518,7 +4512,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -4535,7 +4529,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4552,7 +4546,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4569,7 +4563,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4586,7 +4580,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -4603,7 +4597,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4620,7 +4614,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4637,7 +4631,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -4654,7 +4648,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C167">
         <v>5</v>
@@ -4671,7 +4665,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -4688,7 +4682,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4705,7 +4699,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -4722,7 +4716,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -4739,7 +4733,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C172">
         <v>6</v>
@@ -4756,7 +4750,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4773,7 +4767,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4790,7 +4784,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4807,7 +4801,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4824,7 +4818,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4841,7 +4835,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4858,7 +4852,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4875,7 +4869,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4892,7 +4886,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4909,7 +4903,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -4926,7 +4920,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -4943,7 +4937,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -4960,7 +4954,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -4977,7 +4971,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -4994,7 +4988,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -5011,7 +5005,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5028,7 +5022,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5045,7 +5039,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -5062,7 +5056,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5079,7 +5073,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C192">
         <v>6</v>
@@ -5096,7 +5090,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -5113,7 +5107,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -5130,7 +5124,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -5147,7 +5141,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5164,7 +5158,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -5181,7 +5175,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5198,7 +5192,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5215,7 +5209,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5232,7 +5226,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5249,7 +5243,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5266,7 +5260,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5283,7 +5277,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -5300,7 +5294,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C205">
         <v>116</v>
@@ -5317,7 +5311,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5334,7 +5328,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5351,7 +5345,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5368,7 +5362,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -5385,7 +5379,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -5402,7 +5396,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5419,7 +5413,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5436,7 +5430,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -5453,7 +5447,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -5470,7 +5464,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -5487,7 +5481,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -5504,7 +5498,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -5521,7 +5515,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -5538,7 +5532,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5555,7 +5549,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -5572,7 +5566,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -5589,7 +5583,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5606,7 +5600,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -5623,7 +5617,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5640,7 +5634,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5657,7 +5651,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5674,7 +5668,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5691,7 +5685,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5708,7 +5702,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5725,7 +5719,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5742,7 +5736,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -5759,7 +5753,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -5776,7 +5770,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -5793,7 +5787,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -5810,7 +5804,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -5827,7 +5821,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -5844,7 +5838,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -5861,7 +5855,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -5878,7 +5872,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -5895,7 +5889,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -5912,7 +5906,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -5929,7 +5923,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -5946,7 +5940,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5963,7 +5957,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -5980,7 +5974,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -5997,7 +5991,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -6014,7 +6008,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -6031,7 +6025,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -6048,7 +6042,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -6065,7 +6059,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -6082,7 +6076,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6099,7 +6093,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6116,7 +6110,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6133,7 +6127,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C254">
         <v>4</v>
@@ -6150,7 +6144,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6167,7 +6161,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6184,7 +6178,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6201,7 +6195,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -6218,7 +6212,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -6235,7 +6229,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6252,7 +6246,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6269,7 +6263,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -6286,7 +6280,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -6303,7 +6297,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -6320,7 +6314,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -6337,7 +6331,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -6354,7 +6348,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -6371,7 +6365,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -6388,7 +6382,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -6405,7 +6399,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -6422,7 +6416,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -6439,7 +6433,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C272">
         <v>3</v>
@@ -6456,7 +6450,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -6473,7 +6467,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6490,7 +6484,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -6507,7 +6501,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -6524,7 +6518,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -6541,7 +6535,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -6558,7 +6552,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -6575,7 +6569,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -6592,7 +6586,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -6609,7 +6603,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -6626,7 +6620,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -6643,7 +6637,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -6660,7 +6654,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -6677,7 +6671,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -6694,7 +6688,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -6711,7 +6705,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -6728,7 +6722,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -6745,7 +6739,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -6762,7 +6756,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -6779,7 +6773,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -6796,7 +6790,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -6813,7 +6807,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -6830,7 +6824,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -6847,7 +6841,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -6864,7 +6858,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -6881,7 +6875,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -6898,7 +6892,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -6915,7 +6909,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C300">
         <v>3</v>
@@ -6932,7 +6926,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -6949,7 +6943,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -6966,7 +6960,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -6983,7 +6977,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -7000,7 +6994,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -7017,7 +7011,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C306">
         <v>4</v>
@@ -7034,7 +7028,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -7051,7 +7045,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -7068,7 +7062,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -7085,7 +7079,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -7102,7 +7096,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -7119,7 +7113,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -7136,7 +7130,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -7153,7 +7147,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -7170,7 +7164,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -7187,7 +7181,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C316">
         <v>3</v>
@@ -7204,7 +7198,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -7221,7 +7215,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -7238,7 +7232,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -7255,7 +7249,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -7272,7 +7266,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -7289,7 +7283,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -7306,7 +7300,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -7323,7 +7317,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -7340,7 +7334,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C325">
         <v>5</v>
@@ -7357,7 +7351,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -7374,7 +7368,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C327">
         <v>3</v>
@@ -7391,7 +7385,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -7408,7 +7402,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -7425,7 +7419,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C330">
         <v>23</v>
@@ -7442,7 +7436,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -7459,7 +7453,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -7476,7 +7470,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -7493,7 +7487,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C334">
         <v>4</v>
@@ -7510,7 +7504,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C335">
         <v>2</v>
@@ -7527,7 +7521,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -7544,7 +7538,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -7561,7 +7555,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -7578,7 +7572,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -7595,7 +7589,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -7612,7 +7606,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C341">
         <v>6</v>
@@ -7629,7 +7623,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -7646,7 +7640,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C343">
         <v>2</v>
@@ -7663,7 +7657,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -7680,7 +7674,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -7697,7 +7691,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -7714,7 +7708,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -7731,7 +7725,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -7748,7 +7742,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C349">
         <v>7</v>
@@ -7765,7 +7759,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -7782,7 +7776,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C351">
         <v>9</v>
@@ -7799,7 +7793,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -7816,7 +7810,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -7833,7 +7827,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -7850,7 +7844,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -7867,7 +7861,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -7884,7 +7878,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -7901,7 +7895,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -7918,7 +7912,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -7935,7 +7929,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -7952,7 +7946,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -7969,7 +7963,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -7986,7 +7980,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -8003,7 +7997,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -8020,7 +8014,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -8037,7 +8031,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -8054,7 +8048,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -8071,7 +8065,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -8088,7 +8082,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -8105,7 +8099,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C370">
         <v>3</v>
@@ -8122,7 +8116,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -8139,7 +8133,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -8156,7 +8150,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -8173,7 +8167,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -8190,7 +8184,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -8207,7 +8201,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C376">
         <v>16</v>
@@ -8224,7 +8218,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C377">
         <v>4</v>
@@ -8241,7 +8235,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -8258,7 +8252,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C379">
         <v>2</v>
@@ -8275,7 +8269,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C380">
         <v>2</v>
@@ -8292,7 +8286,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -8309,7 +8303,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -8326,7 +8320,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -8343,7 +8337,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -8360,7 +8354,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -8377,7 +8371,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C386">
         <v>6</v>
@@ -8394,7 +8388,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -8411,7 +8405,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C388">
         <v>2</v>
@@ -8428,7 +8422,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -8445,7 +8439,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -8462,7 +8456,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C391">
         <v>2</v>
@@ -8479,7 +8473,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -8496,7 +8490,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -8513,7 +8507,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C394">
         <v>10</v>
@@ -8530,7 +8524,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -8547,7 +8541,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C396">
         <v>2</v>
@@ -8564,7 +8558,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -8581,7 +8575,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -8598,7 +8592,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C399">
         <v>4</v>
@@ -8615,7 +8609,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C400">
         <v>2</v>
@@ -8632,7 +8626,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -8649,7 +8643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -8666,7 +8660,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C403">
         <v>2</v>
@@ -8683,7 +8677,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C404">
         <v>2</v>
@@ -8700,7 +8694,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -8717,7 +8711,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -8734,7 +8728,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C407">
         <v>2</v>
@@ -8751,7 +8745,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -8768,7 +8762,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -8785,7 +8779,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -8802,7 +8796,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -8819,7 +8813,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -8836,7 +8830,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -8853,7 +8847,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C414">
         <v>2</v>
@@ -8870,7 +8864,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -8887,7 +8881,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -8904,7 +8898,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -8921,7 +8915,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -8938,7 +8932,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -8955,7 +8949,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C420">
         <v>2</v>
@@ -8972,7 +8966,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -8989,7 +8983,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -9006,7 +9000,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C423">
         <v>2</v>
@@ -9023,7 +9017,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -9040,7 +9034,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -9057,7 +9051,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -9074,7 +9068,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -9091,7 +9085,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -9108,7 +9102,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C429">
         <v>2</v>
@@ -9125,7 +9119,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -9142,7 +9136,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -9159,7 +9153,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -9176,7 +9170,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C433">
         <v>2</v>
@@ -9193,7 +9187,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -9210,7 +9204,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C435">
         <v>12</v>
@@ -9227,7 +9221,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -9244,7 +9238,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -9261,7 +9255,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -9278,7 +9272,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -9295,7 +9289,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -9312,7 +9306,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -9329,7 +9323,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -9346,7 +9340,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -9363,7 +9357,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -9380,7 +9374,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C445">
         <v>2</v>
@@ -9397,7 +9391,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -9414,7 +9408,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -9431,7 +9425,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -9448,7 +9442,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -9465,7 +9459,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -9482,7 +9476,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -9499,7 +9493,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -9516,7 +9510,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -9533,7 +9527,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -9550,7 +9544,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -9567,7 +9561,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C456">
         <v>1</v>

--- a/May_24_Delivery_Data.xlsx
+++ b/May_24_Delivery_Data.xlsx
@@ -15,20 +15,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="468">
   <si>
     <t>Facility Name</t>
   </si>
   <si>
+    <t>Center Name</t>
+  </si>
+  <si>
+    <t>Center Num</t>
+  </si>
+  <si>
+    <t>Facility Address Line 1</t>
+  </si>
+  <si>
+    <t>Facility City Name</t>
+  </si>
+  <si>
+    <t>Facility Postal Code</t>
+  </si>
+  <si>
+    <t>Deliv Center Capac</t>
+  </si>
+  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>Deliv Center Capac</t>
-  </si>
-  <si>
     <t>MYKAWA</t>
   </si>
   <si>
@@ -36,6 +51,27 @@
   </si>
   <si>
     <t>HOUSTON (CANINO) HUB</t>
+  </si>
+  <si>
+    <t>MYKAWA EAM</t>
+  </si>
+  <si>
+    <t>STAFFORD-KATY</t>
+  </si>
+  <si>
+    <t>SWEETWATER-CENTRAL</t>
+  </si>
+  <si>
+    <t>7110 MYKAWA ROAD</t>
+  </si>
+  <si>
+    <t>13922 STAFFORD ROAD</t>
+  </si>
+  <si>
+    <t>8330 SWEETWATER LANE</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
   </si>
   <si>
     <t>Delivery Address</t>
@@ -1740,13 +1776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,56 +1795,128 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>29.6759</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>-95.3211</v>
-      </c>
-      <c r="E2">
+        <v>7723</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>77033</v>
+      </c>
+      <c r="I2">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="J2">
+        <v>29.67578534220857</v>
+      </c>
+      <c r="K2">
+        <v>-95.32125610590822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>29.6194</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>-95.5557</v>
-      </c>
-      <c r="E3">
+        <v>7741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>77477</v>
+      </c>
+      <c r="I3">
         <v>999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="J3">
+        <v>29.61935353306665</v>
+      </c>
+      <c r="K3">
+        <v>-95.55583702616946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>29.6395</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>-95.2895</v>
-      </c>
-      <c r="E4">
+        <v>7707</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>77037</v>
+      </c>
+      <c r="I4">
         <v>999999999</v>
+      </c>
+      <c r="J4">
+        <v>29.88062033368866</v>
+      </c>
+      <c r="K4">
+        <v>-95.40848234626999</v>
       </c>
     </row>
   </sheetData>
@@ -1826,16 +1934,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1843,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1860,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1877,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1894,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1911,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1928,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1945,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1962,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1979,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1996,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2013,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2030,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2047,7 +2155,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2064,7 +2172,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2081,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2098,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2115,7 +2223,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2132,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2149,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>22</v>
@@ -2166,7 +2274,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2183,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2200,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2217,7 +2325,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2234,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2251,7 +2359,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2268,7 +2376,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2285,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2302,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2319,7 +2427,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2336,7 +2444,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2353,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2370,7 +2478,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2387,7 +2495,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2404,7 +2512,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2421,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2438,7 +2546,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2455,7 +2563,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2472,7 +2580,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2489,7 +2597,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2506,7 +2614,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2523,7 +2631,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -2540,7 +2648,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2557,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2574,7 +2682,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2591,7 +2699,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2608,7 +2716,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2625,7 +2733,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2642,7 +2750,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -2659,7 +2767,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2676,7 +2784,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2693,7 +2801,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2710,7 +2818,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2727,7 +2835,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2744,7 +2852,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2761,7 +2869,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2778,7 +2886,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2795,7 +2903,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2812,7 +2920,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2829,7 +2937,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2846,7 +2954,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2863,7 +2971,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2880,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2897,7 +3005,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -2914,7 +3022,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2931,7 +3039,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2948,7 +3056,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2965,7 +3073,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2982,7 +3090,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2999,7 +3107,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3016,7 +3124,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3033,7 +3141,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3050,7 +3158,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -3067,7 +3175,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3084,7 +3192,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3101,7 +3209,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -3118,7 +3226,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3135,7 +3243,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -3152,7 +3260,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3169,7 +3277,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3186,7 +3294,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -3203,7 +3311,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3220,7 +3328,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3237,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3254,7 +3362,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3271,7 +3379,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3288,7 +3396,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -3305,7 +3413,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -3322,7 +3430,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -3339,7 +3447,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3356,7 +3464,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C91">
         <v>11</v>
@@ -3373,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -3390,7 +3498,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -3407,7 +3515,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -3424,7 +3532,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3441,7 +3549,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -3458,7 +3566,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -3475,7 +3583,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -3492,7 +3600,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -3509,7 +3617,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -3526,7 +3634,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -3543,7 +3651,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3560,7 +3668,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3577,7 +3685,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3594,7 +3702,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -3611,7 +3719,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -3628,7 +3736,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3645,7 +3753,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3662,7 +3770,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -3679,7 +3787,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3696,7 +3804,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -3713,7 +3821,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -3730,7 +3838,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3747,7 +3855,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3764,7 +3872,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3781,7 +3889,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3798,7 +3906,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3815,7 +3923,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3832,7 +3940,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3849,7 +3957,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -3866,7 +3974,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -3883,7 +3991,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3900,7 +4008,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3917,7 +4025,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -3934,7 +4042,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3951,7 +4059,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -3968,7 +4076,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3985,7 +4093,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -4002,7 +4110,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -4019,7 +4127,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4036,7 +4144,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4053,7 +4161,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4070,7 +4178,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4087,7 +4195,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4104,7 +4212,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4121,7 +4229,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4138,7 +4246,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -4155,7 +4263,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4172,7 +4280,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4189,7 +4297,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -4206,7 +4314,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4223,7 +4331,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4240,7 +4348,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -4257,7 +4365,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -4274,7 +4382,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -4291,7 +4399,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -4308,7 +4416,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C147">
         <v>6</v>
@@ -4325,7 +4433,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4342,7 +4450,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4359,7 +4467,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4376,7 +4484,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C151">
         <v>17</v>
@@ -4393,7 +4501,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -4410,7 +4518,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4427,7 +4535,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -4444,7 +4552,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -4461,7 +4569,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -4478,7 +4586,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4495,7 +4603,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4512,7 +4620,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -4529,7 +4637,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4546,7 +4654,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4563,7 +4671,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4580,7 +4688,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -4597,7 +4705,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4614,7 +4722,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -4631,7 +4739,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -4648,7 +4756,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>5</v>
@@ -4665,7 +4773,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -4682,7 +4790,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4699,7 +4807,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -4716,7 +4824,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -4733,7 +4841,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C172">
         <v>6</v>
@@ -4750,7 +4858,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4767,7 +4875,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4784,7 +4892,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4801,7 +4909,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4818,7 +4926,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -4835,7 +4943,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4852,7 +4960,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4869,7 +4977,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4886,7 +4994,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4903,7 +5011,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C182">
         <v>3</v>
@@ -4920,7 +5028,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -4937,7 +5045,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -4954,7 +5062,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -4971,7 +5079,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C186">
         <v>2</v>
@@ -4988,7 +5096,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -5005,7 +5113,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5022,7 +5130,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5039,7 +5147,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -5056,7 +5164,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5073,7 +5181,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C192">
         <v>6</v>
@@ -5090,7 +5198,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -5107,7 +5215,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -5124,7 +5232,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -5141,7 +5249,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5158,7 +5266,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -5175,7 +5283,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5192,7 +5300,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5209,7 +5317,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5226,7 +5334,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5243,7 +5351,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5260,7 +5368,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5277,7 +5385,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -5294,7 +5402,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C205">
         <v>116</v>
@@ -5311,7 +5419,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5328,7 +5436,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5345,7 +5453,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5362,7 +5470,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C209">
         <v>2</v>
@@ -5379,7 +5487,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C210">
         <v>2</v>
@@ -5396,7 +5504,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5413,7 +5521,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5430,7 +5538,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -5447,7 +5555,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -5464,7 +5572,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -5481,7 +5589,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -5498,7 +5606,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -5515,7 +5623,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -5532,7 +5640,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5549,7 +5657,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -5566,7 +5674,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -5583,7 +5691,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5600,7 +5708,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -5617,7 +5725,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5634,7 +5742,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5651,7 +5759,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5668,7 +5776,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5685,7 +5793,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5702,7 +5810,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5719,7 +5827,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5736,7 +5844,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -5753,7 +5861,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -5770,7 +5878,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -5787,7 +5895,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -5804,7 +5912,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -5821,7 +5929,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -5838,7 +5946,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -5855,7 +5963,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -5872,7 +5980,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -5889,7 +5997,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -5906,7 +6014,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -5923,7 +6031,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -5940,7 +6048,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5957,7 +6065,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -5974,7 +6082,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -5991,7 +6099,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -6008,7 +6116,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -6025,7 +6133,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -6042,7 +6150,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -6059,7 +6167,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -6076,7 +6184,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6093,7 +6201,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6110,7 +6218,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6127,7 +6235,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C254">
         <v>4</v>
@@ -6144,7 +6252,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6161,7 +6269,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6178,7 +6286,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6195,7 +6303,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -6212,7 +6320,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -6229,7 +6337,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6246,7 +6354,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6263,7 +6371,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -6280,7 +6388,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C263">
         <v>2</v>
@@ -6297,7 +6405,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -6314,7 +6422,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -6331,7 +6439,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -6348,7 +6456,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -6365,7 +6473,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -6382,7 +6490,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -6399,7 +6507,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -6416,7 +6524,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -6433,7 +6541,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C272">
         <v>3</v>
@@ -6450,7 +6558,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -6467,7 +6575,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6484,7 +6592,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -6501,7 +6609,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -6518,7 +6626,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -6535,7 +6643,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -6552,7 +6660,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -6569,7 +6677,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -6586,7 +6694,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -6603,7 +6711,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -6620,7 +6728,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -6637,7 +6745,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -6654,7 +6762,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -6671,7 +6779,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -6688,7 +6796,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -6705,7 +6813,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -6722,7 +6830,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -6739,7 +6847,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -6756,7 +6864,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -6773,7 +6881,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -6790,7 +6898,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C293">
         <v>3</v>
@@ -6807,7 +6915,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -6824,7 +6932,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -6841,7 +6949,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -6858,7 +6966,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -6875,7 +6983,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -6892,7 +7000,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -6909,7 +7017,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C300">
         <v>3</v>
@@ -6926,7 +7034,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -6943,7 +7051,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -6960,7 +7068,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -6977,7 +7085,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -6994,7 +7102,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -7011,7 +7119,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C306">
         <v>4</v>
@@ -7028,7 +7136,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -7045,7 +7153,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -7062,7 +7170,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -7079,7 +7187,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -7096,7 +7204,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -7113,7 +7221,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -7130,7 +7238,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C313">
         <v>2</v>
@@ -7147,7 +7255,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -7164,7 +7272,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -7181,7 +7289,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C316">
         <v>3</v>
@@ -7198,7 +7306,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -7215,7 +7323,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -7232,7 +7340,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -7249,7 +7357,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -7266,7 +7374,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -7283,7 +7391,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -7300,7 +7408,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -7317,7 +7425,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -7334,7 +7442,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C325">
         <v>5</v>
@@ -7351,7 +7459,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -7368,7 +7476,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C327">
         <v>3</v>
@@ -7385,7 +7493,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -7402,7 +7510,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -7419,7 +7527,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C330">
         <v>23</v>
@@ -7436,7 +7544,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -7453,7 +7561,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -7470,7 +7578,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -7487,7 +7595,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C334">
         <v>4</v>
@@ -7504,7 +7612,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C335">
         <v>2</v>
@@ -7521,7 +7629,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -7538,7 +7646,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C337">
         <v>1</v>
@@ -7555,7 +7663,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -7572,7 +7680,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -7589,7 +7697,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -7606,7 +7714,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C341">
         <v>6</v>
@@ -7623,7 +7731,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -7640,7 +7748,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C343">
         <v>2</v>
@@ -7657,7 +7765,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -7674,7 +7782,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -7691,7 +7799,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -7708,7 +7816,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C347">
         <v>2</v>
@@ -7725,7 +7833,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -7742,7 +7850,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C349">
         <v>7</v>
@@ -7759,7 +7867,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -7776,7 +7884,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C351">
         <v>9</v>
@@ -7793,7 +7901,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -7810,7 +7918,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -7827,7 +7935,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -7844,7 +7952,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -7861,7 +7969,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -7878,7 +7986,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -7895,7 +8003,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -7912,7 +8020,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -7929,7 +8037,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -7946,7 +8054,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -7963,7 +8071,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -7980,7 +8088,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -7997,7 +8105,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -8014,7 +8122,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -8031,7 +8139,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -8048,7 +8156,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -8065,7 +8173,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -8082,7 +8190,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -8099,7 +8207,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C370">
         <v>3</v>
@@ -8116,7 +8224,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -8133,7 +8241,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -8150,7 +8258,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -8167,7 +8275,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -8184,7 +8292,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -8201,7 +8309,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C376">
         <v>16</v>
@@ -8218,7 +8326,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C377">
         <v>4</v>
@@ -8235,7 +8343,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -8252,7 +8360,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C379">
         <v>2</v>
@@ -8269,7 +8377,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C380">
         <v>2</v>
@@ -8286,7 +8394,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -8303,7 +8411,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -8320,7 +8428,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -8337,7 +8445,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -8354,7 +8462,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -8371,7 +8479,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C386">
         <v>6</v>
@@ -8388,7 +8496,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -8405,7 +8513,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C388">
         <v>2</v>
@@ -8422,7 +8530,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -8439,7 +8547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -8456,7 +8564,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C391">
         <v>2</v>
@@ -8473,7 +8581,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -8490,7 +8598,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -8507,7 +8615,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C394">
         <v>10</v>
@@ -8524,7 +8632,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -8541,7 +8649,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C396">
         <v>2</v>
@@ -8558,7 +8666,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -8575,7 +8683,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -8592,7 +8700,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C399">
         <v>4</v>
@@ -8609,7 +8717,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C400">
         <v>2</v>
@@ -8626,7 +8734,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -8643,7 +8751,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -8660,7 +8768,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C403">
         <v>2</v>
@@ -8677,7 +8785,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C404">
         <v>2</v>
@@ -8694,7 +8802,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -8711,7 +8819,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -8728,7 +8836,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C407">
         <v>2</v>
@@ -8745,7 +8853,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -8762,7 +8870,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -8779,7 +8887,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -8796,7 +8904,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -8813,7 +8921,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -8830,7 +8938,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -8847,7 +8955,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C414">
         <v>2</v>
@@ -8864,7 +8972,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -8881,7 +8989,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -8898,7 +9006,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -8915,7 +9023,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -8932,7 +9040,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -8949,7 +9057,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C420">
         <v>2</v>
@@ -8966,7 +9074,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -8983,7 +9091,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -9000,7 +9108,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C423">
         <v>2</v>
@@ -9017,7 +9125,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -9034,7 +9142,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -9051,7 +9159,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -9068,7 +9176,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -9085,7 +9193,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -9102,7 +9210,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C429">
         <v>2</v>
@@ -9119,7 +9227,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -9136,7 +9244,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -9153,7 +9261,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -9170,7 +9278,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C433">
         <v>2</v>
@@ -9187,7 +9295,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -9204,7 +9312,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C435">
         <v>12</v>
@@ -9221,7 +9329,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -9238,7 +9346,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -9255,7 +9363,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -9272,7 +9380,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -9289,7 +9397,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -9306,7 +9414,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -9323,7 +9431,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -9340,7 +9448,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -9357,7 +9465,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -9374,7 +9482,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C445">
         <v>2</v>
@@ -9391,7 +9499,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -9408,7 +9516,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -9425,7 +9533,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -9442,7 +9550,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -9459,7 +9567,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -9476,7 +9584,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -9493,7 +9601,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -9510,7 +9618,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -9527,7 +9635,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -9544,7 +9652,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -9561,7 +9669,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C456">
         <v>1</v>
